--- a/TreatyData '80-'89 v1.xlsx
+++ b/TreatyData '80-'89 v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="460" windowWidth="15840" windowHeight="14240" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="3940" yWindow="460" windowWidth="20980" windowHeight="14240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CountryTreaties" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CountryNormalization!$A$1:$C$1644</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CountryTreaties!$A$1:$D$1981</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CountryTreatiesClean!$A$1:$D$1644</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1653</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1644</definedName>
     <definedName name="Aid">#REF!</definedName>
     <definedName name="Aid70s">#REF!</definedName>
     <definedName name="NCA">#REF!</definedName>
@@ -28828,8 +28828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1644"/>
   <sheetViews>
-    <sheetView topLeftCell="A1612" workbookViewId="0">
-      <selection activeCell="C1633" sqref="C1633"/>
+    <sheetView topLeftCell="A1319" workbookViewId="0">
+      <selection activeCell="B1337" sqref="B1337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69964,7 +69964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -70538,10 +70538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1653"/>
+  <dimension ref="A1:C1644"/>
   <sheetViews>
-    <sheetView topLeftCell="A1627" workbookViewId="0">
-      <selection activeCell="A1640" sqref="A1640:A1643"/>
+    <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
+      <selection activeCell="E1339" sqref="E1339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85244,101 +85244,101 @@
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1337">
         <v>1980</v>
       </c>
       <c r="C1337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1338">
         <v>1981</v>
       </c>
       <c r="C1338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1339">
         <v>1982</v>
       </c>
       <c r="C1339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1340">
         <v>1983</v>
       </c>
       <c r="C1340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1341">
         <v>1984</v>
       </c>
       <c r="C1341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1342">
         <v>1985</v>
       </c>
       <c r="C1342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1343">
         <v>1986</v>
       </c>
       <c r="C1343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1344">
         <v>1987</v>
       </c>
       <c r="C1344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1345">
         <v>1988</v>
       </c>
       <c r="C1345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
@@ -85346,7 +85346,7 @@
         <v>731</v>
       </c>
       <c r="B1346">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1346">
         <v>2</v>
@@ -85354,101 +85354,101 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1347">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1348">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1349">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1350">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1351">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1352">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1353">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1354">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1355">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
@@ -85456,7 +85456,7 @@
         <v>732</v>
       </c>
       <c r="B1356">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1356">
         <v>0</v>
@@ -85464,10 +85464,10 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1357">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1357">
         <v>0</v>
@@ -85475,10 +85475,10 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1358">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1358">
         <v>0</v>
@@ -85486,10 +85486,10 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1359">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1359">
         <v>0</v>
@@ -85497,10 +85497,10 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1360">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1360">
         <v>0</v>
@@ -85508,10 +85508,10 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1361">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1361">
         <v>0</v>
@@ -85519,10 +85519,10 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1362">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1362">
         <v>0</v>
@@ -85530,10 +85530,10 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1363">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1363">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1363">
         <v>0</v>
@@ -85541,10 +85541,10 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1364">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1364">
         <v>0</v>
@@ -85552,10 +85552,10 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1365">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1365">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1365">
         <v>0</v>
@@ -85566,7 +85566,7 @@
         <v>740</v>
       </c>
       <c r="B1366">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1366">
         <v>0</v>
@@ -85574,101 +85574,101 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1367">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1367">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1368">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1369">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1369">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1370">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1370">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1371">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1372">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1373">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1374">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1375">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1375">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
@@ -85676,109 +85676,109 @@
         <v>750</v>
       </c>
       <c r="B1376">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1376">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1377">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1378">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1379">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1380">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1381">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1382">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1383">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1384">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1384">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1385">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1385">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
@@ -85786,7 +85786,7 @@
         <v>760</v>
       </c>
       <c r="B1386">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1386">
         <v>0</v>
@@ -85794,101 +85794,101 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1387">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1388">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1389">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1390">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1391">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1392">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1393">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1394">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1394">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1395">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1395">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
@@ -85896,109 +85896,109 @@
         <v>770</v>
       </c>
       <c r="B1396">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1397">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1398">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1399">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1400">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1401">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1402">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1403">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1403">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1404">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1404">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1405">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1405">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
@@ -86006,7 +86006,7 @@
         <v>771</v>
       </c>
       <c r="B1406">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1406">
         <v>0</v>
@@ -86014,10 +86014,10 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1407">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1407">
         <v>0</v>
@@ -86025,10 +86025,10 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1408">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1408">
         <v>0</v>
@@ -86036,10 +86036,10 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1409">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1409">
         <v>0</v>
@@ -86047,10 +86047,10 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1410">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1410">
         <v>0</v>
@@ -86058,10 +86058,10 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1411">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1411">
         <v>0</v>
@@ -86069,10 +86069,10 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1412">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1412">
         <v>0</v>
@@ -86080,10 +86080,10 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1413">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1413">
         <v>0</v>
@@ -86091,10 +86091,10 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1414">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1414">
         <v>0</v>
@@ -86102,10 +86102,10 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1415">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1415">
         <v>0</v>
@@ -86116,7 +86116,7 @@
         <v>775</v>
       </c>
       <c r="B1416">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1416">
         <v>0</v>
@@ -86124,10 +86124,10 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1417">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1417">
         <v>0</v>
@@ -86135,10 +86135,10 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1418">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1418">
         <v>0</v>
@@ -86146,10 +86146,10 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1419">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1419">
         <v>0</v>
@@ -86157,10 +86157,10 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1420">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1420">
         <v>0</v>
@@ -86168,10 +86168,10 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1421">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1421">
         <v>0</v>
@@ -86179,10 +86179,10 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1422">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1422">
         <v>0</v>
@@ -86190,10 +86190,10 @@
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1423">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1423">
         <v>0</v>
@@ -86201,10 +86201,10 @@
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1424">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1424">
         <v>0</v>
@@ -86212,10 +86212,10 @@
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1425">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1425">
         <v>0</v>
@@ -86226,7 +86226,7 @@
         <v>780</v>
       </c>
       <c r="B1426">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1426">
         <v>0</v>
@@ -86234,10 +86234,10 @@
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1427">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1427">
         <v>0</v>
@@ -86245,10 +86245,10 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1428">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1428">
         <v>0</v>
@@ -86256,10 +86256,10 @@
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1429">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1429">
         <v>0</v>
@@ -86267,10 +86267,10 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1430">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1430">
         <v>0</v>
@@ -86278,10 +86278,10 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1431">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1431">
         <v>0</v>
@@ -86289,10 +86289,10 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1432">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1432">
         <v>0</v>
@@ -86300,10 +86300,10 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1433">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1433">
         <v>0</v>
@@ -86311,10 +86311,10 @@
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1434">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1434">
         <v>0</v>
@@ -86322,10 +86322,10 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1435">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1435">
         <v>0</v>
@@ -86336,7 +86336,7 @@
         <v>781</v>
       </c>
       <c r="B1436">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1436">
         <v>0</v>
@@ -86344,10 +86344,10 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1437">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1437">
         <v>0</v>
@@ -86355,10 +86355,10 @@
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1438">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1438">
         <v>0</v>
@@ -86366,10 +86366,10 @@
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1439">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1439">
         <v>0</v>
@@ -86377,10 +86377,10 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1440">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1440">
         <v>0</v>
@@ -86388,10 +86388,10 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1441">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1441">
         <v>0</v>
@@ -86399,10 +86399,10 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1442">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1442">
         <v>0</v>
@@ -86410,10 +86410,10 @@
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1443">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1443">
         <v>0</v>
@@ -86421,10 +86421,10 @@
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1444">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1444">
         <v>0</v>
@@ -86432,10 +86432,10 @@
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1445">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1445">
         <v>0</v>
@@ -86446,7 +86446,7 @@
         <v>790</v>
       </c>
       <c r="B1446">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1446">
         <v>0</v>
@@ -86454,10 +86454,10 @@
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1447">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1447">
         <v>0</v>
@@ -86465,10 +86465,10 @@
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1448">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1448">
         <v>0</v>
@@ -86476,10 +86476,10 @@
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1449">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1449">
         <v>0</v>
@@ -86487,10 +86487,10 @@
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1450">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1450">
         <v>0</v>
@@ -86498,10 +86498,10 @@
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1451">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1451">
         <v>0</v>
@@ -86509,10 +86509,10 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1452">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1452">
         <v>0</v>
@@ -86520,10 +86520,10 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1453">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1453">
         <v>0</v>
@@ -86531,10 +86531,10 @@
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1454">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1454">
         <v>0</v>
@@ -86542,10 +86542,10 @@
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1455">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1455">
         <v>0</v>
@@ -86556,7 +86556,7 @@
         <v>800</v>
       </c>
       <c r="B1456">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1456">
         <v>0</v>
@@ -86564,10 +86564,10 @@
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1457">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1457">
         <v>0</v>
@@ -86575,10 +86575,10 @@
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1458">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1458">
         <v>0</v>
@@ -86586,10 +86586,10 @@
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1459">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1459">
         <v>0</v>
@@ -86597,10 +86597,10 @@
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1460">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1460">
         <v>0</v>
@@ -86608,10 +86608,10 @@
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1461">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1461">
         <v>0</v>
@@ -86619,10 +86619,10 @@
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1462">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1462">
         <v>0</v>
@@ -86630,10 +86630,10 @@
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1463">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1463">
         <v>0</v>
@@ -86641,10 +86641,10 @@
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1464">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1464">
         <v>0</v>
@@ -86652,10 +86652,10 @@
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1465">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1465">
         <v>0</v>
@@ -86666,7 +86666,7 @@
         <v>811</v>
       </c>
       <c r="B1466">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1466">
         <v>0</v>
@@ -86674,10 +86674,10 @@
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1467">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1467">
         <v>0</v>
@@ -86685,10 +86685,10 @@
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1468">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1468">
         <v>0</v>
@@ -86696,10 +86696,10 @@
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1469">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1469">
         <v>0</v>
@@ -86707,10 +86707,10 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1470">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1470">
         <v>0</v>
@@ -86718,10 +86718,10 @@
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1471">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1471">
         <v>0</v>
@@ -86729,10 +86729,10 @@
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1472">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1472">
         <v>0</v>
@@ -86740,10 +86740,10 @@
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1473">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1473">
         <v>0</v>
@@ -86751,10 +86751,10 @@
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1474">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1474">
         <v>0</v>
@@ -86762,10 +86762,10 @@
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1475">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1475">
         <v>0</v>
@@ -86776,7 +86776,7 @@
         <v>812</v>
       </c>
       <c r="B1476">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1476">
         <v>0</v>
@@ -86784,10 +86784,10 @@
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1477">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1477">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1477">
         <v>0</v>
@@ -86795,10 +86795,10 @@
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1478">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1478">
         <v>0</v>
@@ -86806,10 +86806,10 @@
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1479">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1479">
         <v>0</v>
@@ -86817,10 +86817,10 @@
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1480">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1480">
         <v>0</v>
@@ -86828,10 +86828,10 @@
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1481">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1481">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1481">
         <v>0</v>
@@ -86839,10 +86839,10 @@
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1482">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1482">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1482">
         <v>0</v>
@@ -86850,10 +86850,10 @@
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1483">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1483">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1483">
         <v>0</v>
@@ -86861,10 +86861,10 @@
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1484">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1484">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1484">
         <v>0</v>
@@ -86872,10 +86872,10 @@
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1485">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1485">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1485">
         <v>0</v>
@@ -86886,7 +86886,7 @@
         <v>816</v>
       </c>
       <c r="B1486">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1486">
         <v>0</v>
@@ -86894,10 +86894,10 @@
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1487">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1487">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1487">
         <v>0</v>
@@ -86905,10 +86905,10 @@
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1488">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1488">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1488">
         <v>0</v>
@@ -86916,10 +86916,10 @@
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1489">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1489">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1489">
         <v>0</v>
@@ -86927,10 +86927,10 @@
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1490">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1490">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1490">
         <v>0</v>
@@ -86938,10 +86938,10 @@
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1491">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1491">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1491">
         <v>0</v>
@@ -86949,10 +86949,10 @@
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1492">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1492">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1492">
         <v>0</v>
@@ -86960,10 +86960,10 @@
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1493">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1493">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1493">
         <v>0</v>
@@ -86971,10 +86971,10 @@
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1494">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1494">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1494">
         <v>0</v>
@@ -86982,10 +86982,10 @@
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1495">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1495">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1495">
         <v>0</v>
@@ -86996,7 +86996,7 @@
         <v>820</v>
       </c>
       <c r="B1496">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1496">
         <v>0</v>
@@ -87004,10 +87004,10 @@
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1497">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1497">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1497">
         <v>0</v>
@@ -87015,10 +87015,10 @@
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1498">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1498">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1498">
         <v>0</v>
@@ -87026,10 +87026,10 @@
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1499">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1499">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1499">
         <v>0</v>
@@ -87037,10 +87037,10 @@
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1500">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1500">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1500">
         <v>0</v>
@@ -87048,10 +87048,10 @@
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1501">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1501">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1501">
         <v>0</v>
@@ -87059,10 +87059,10 @@
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1502">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1502">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1502">
         <v>0</v>
@@ -87070,10 +87070,10 @@
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1503">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1503">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1503">
         <v>0</v>
@@ -87081,10 +87081,10 @@
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1504">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1504">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1504">
         <v>0</v>
@@ -87092,10 +87092,10 @@
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1505">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1505">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1505">
         <v>0</v>
@@ -87106,7 +87106,7 @@
         <v>830</v>
       </c>
       <c r="B1506">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1506">
         <v>0</v>
@@ -87114,10 +87114,10 @@
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1507">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1507">
         <v>0</v>
@@ -87125,10 +87125,10 @@
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1508">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1508">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1508">
         <v>0</v>
@@ -87136,10 +87136,10 @@
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1509">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1509">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1509">
         <v>0</v>
@@ -87147,10 +87147,10 @@
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1510">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1510">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1510">
         <v>0</v>
@@ -87158,10 +87158,10 @@
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1511">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1511">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1511">
         <v>0</v>
@@ -87169,10 +87169,10 @@
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1512">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1512">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1512">
         <v>0</v>
@@ -87180,10 +87180,10 @@
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1513">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1513">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1513">
         <v>0</v>
@@ -87191,10 +87191,10 @@
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1514">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1514">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1514">
         <v>0</v>
@@ -87202,10 +87202,10 @@
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1515">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1515">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1515">
         <v>0</v>
@@ -87216,7 +87216,7 @@
         <v>840</v>
       </c>
       <c r="B1516">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1516">
         <v>0</v>
@@ -87224,10 +87224,10 @@
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1517">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1517">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1517">
         <v>0</v>
@@ -87235,10 +87235,10 @@
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1518">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1518">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1518">
         <v>0</v>
@@ -87246,10 +87246,10 @@
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1519">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1519">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1519">
         <v>0</v>
@@ -87257,10 +87257,10 @@
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1520">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1520">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1520">
         <v>0</v>
@@ -87268,10 +87268,10 @@
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1521">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1521">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1521">
         <v>0</v>
@@ -87279,10 +87279,10 @@
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1522">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1522">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1522">
         <v>0</v>
@@ -87290,10 +87290,10 @@
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1523">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1523">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1523">
         <v>0</v>
@@ -87301,10 +87301,10 @@
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1524">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1524">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1524">
         <v>0</v>
@@ -87312,10 +87312,10 @@
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1525">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1525">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1525">
         <v>0</v>
@@ -87326,7 +87326,7 @@
         <v>850</v>
       </c>
       <c r="B1526">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1526">
         <v>0</v>
@@ -87334,10 +87334,10 @@
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1527">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1527">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1527">
         <v>0</v>
@@ -87345,10 +87345,10 @@
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1528">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1528">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1528">
         <v>0</v>
@@ -87356,10 +87356,10 @@
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1529">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1529">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1529">
         <v>0</v>
@@ -87367,10 +87367,10 @@
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1530">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1530">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1530">
         <v>0</v>
@@ -87378,10 +87378,10 @@
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1531">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1531">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1531">
         <v>0</v>
@@ -87389,10 +87389,10 @@
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1532">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1532">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1532">
         <v>0</v>
@@ -87400,10 +87400,10 @@
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1533">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1533">
         <v>0</v>
@@ -87411,10 +87411,10 @@
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1534">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1534">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1534">
         <v>0</v>
@@ -87422,10 +87422,10 @@
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1535">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1535">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1535">
         <v>0</v>
@@ -87436,7 +87436,7 @@
         <v>900</v>
       </c>
       <c r="B1536">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1536">
         <v>0</v>
@@ -87444,10 +87444,10 @@
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1537">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1537">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1537">
         <v>0</v>
@@ -87455,10 +87455,10 @@
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1538">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1538">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1538">
         <v>0</v>
@@ -87466,10 +87466,10 @@
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1539">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1539">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1539">
         <v>0</v>
@@ -87477,10 +87477,10 @@
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1540">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1540">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1540">
         <v>0</v>
@@ -87488,10 +87488,10 @@
     </row>
     <row r="1541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1541">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1541">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1541">
         <v>0</v>
@@ -87499,10 +87499,10 @@
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1542">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1542">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1542">
         <v>0</v>
@@ -87510,10 +87510,10 @@
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1543">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1543">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1543">
         <v>0</v>
@@ -87521,10 +87521,10 @@
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1544">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1544">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1544">
         <v>0</v>
@@ -87532,10 +87532,10 @@
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1545">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1545">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1545">
         <v>0</v>
@@ -87546,7 +87546,7 @@
         <v>910</v>
       </c>
       <c r="B1546">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1546">
         <v>0</v>
@@ -87554,10 +87554,10 @@
     </row>
     <row r="1547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1547">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1547">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1547">
         <v>0</v>
@@ -87565,10 +87565,10 @@
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1548">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1548">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1548">
         <v>0</v>
@@ -87576,10 +87576,10 @@
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1549">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1549">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1549">
         <v>0</v>
@@ -87587,10 +87587,10 @@
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1550">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1550">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1550">
         <v>0</v>
@@ -87598,10 +87598,10 @@
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1551">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1551">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1551">
         <v>0</v>
@@ -87609,10 +87609,10 @@
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1552">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1552">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1552">
         <v>0</v>
@@ -87620,10 +87620,10 @@
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1553">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1553">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1553">
         <v>0</v>
@@ -87631,10 +87631,10 @@
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1554">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1554">
         <v>0</v>
@@ -87642,10 +87642,10 @@
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1555">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1555">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1555">
         <v>0</v>
@@ -87656,7 +87656,7 @@
         <v>920</v>
       </c>
       <c r="B1556">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1556">
         <v>0</v>
@@ -87664,10 +87664,10 @@
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1557">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1557">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1557">
         <v>0</v>
@@ -87675,10 +87675,10 @@
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1558">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1558">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1558">
         <v>0</v>
@@ -87686,10 +87686,10 @@
     </row>
     <row r="1559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1559">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1559">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1559">
         <v>0</v>
@@ -87697,10 +87697,10 @@
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1560">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1560">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1560">
         <v>0</v>
@@ -87708,10 +87708,10 @@
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1561">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1561">
         <v>0</v>
@@ -87719,10 +87719,10 @@
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1562">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1562">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1562">
         <v>0</v>
@@ -87730,10 +87730,10 @@
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1563">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1563">
         <v>0</v>
@@ -87741,10 +87741,10 @@
     </row>
     <row r="1564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1564">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1564">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1564">
         <v>0</v>
@@ -87752,10 +87752,10 @@
     </row>
     <row r="1565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1565">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="B1565">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1565">
         <v>0</v>
@@ -87766,7 +87766,7 @@
         <v>935</v>
       </c>
       <c r="B1566">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1566">
         <v>0</v>
@@ -87774,10 +87774,10 @@
     </row>
     <row r="1567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1567">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1567">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1567">
         <v>0</v>
@@ -87785,10 +87785,10 @@
     </row>
     <row r="1568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1568">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1568">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1568">
         <v>0</v>
@@ -87796,10 +87796,10 @@
     </row>
     <row r="1569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1569">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1569">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1569">
         <v>0</v>
@@ -87807,10 +87807,10 @@
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1570">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1570">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1570">
         <v>0</v>
@@ -87818,10 +87818,10 @@
     </row>
     <row r="1571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1571">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1571">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1571">
         <v>0</v>
@@ -87829,10 +87829,10 @@
     </row>
     <row r="1572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1572">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1572">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1572">
         <v>0</v>
@@ -87840,10 +87840,10 @@
     </row>
     <row r="1573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1573">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1573">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1573">
         <v>0</v>
@@ -87851,10 +87851,10 @@
     </row>
     <row r="1574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1574">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1574">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1574">
         <v>0</v>
@@ -87862,10 +87862,10 @@
     </row>
     <row r="1575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1575">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B1575">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1575">
         <v>0</v>
@@ -87876,7 +87876,7 @@
         <v>940</v>
       </c>
       <c r="B1576">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1576">
         <v>0</v>
@@ -87884,10 +87884,10 @@
     </row>
     <row r="1577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1577">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1577">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1577">
         <v>0</v>
@@ -87895,10 +87895,10 @@
     </row>
     <row r="1578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1578">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1578">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1578">
         <v>0</v>
@@ -87906,10 +87906,10 @@
     </row>
     <row r="1579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1579">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1579">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1579">
         <v>0</v>
@@ -87917,10 +87917,10 @@
     </row>
     <row r="1580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1580">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1580">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1580">
         <v>0</v>
@@ -87928,10 +87928,10 @@
     </row>
     <row r="1581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1581">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1581">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1581">
         <v>0</v>
@@ -87939,10 +87939,10 @@
     </row>
     <row r="1582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1582">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1582">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1582">
         <v>0</v>
@@ -87950,10 +87950,10 @@
     </row>
     <row r="1583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1583">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1583">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1583">
         <v>0</v>
@@ -87961,10 +87961,10 @@
     </row>
     <row r="1584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1584">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1584">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1584">
         <v>0</v>
@@ -87972,10 +87972,10 @@
     </row>
     <row r="1585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1585">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B1585">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1585">
         <v>0</v>
@@ -87986,7 +87986,7 @@
         <v>946</v>
       </c>
       <c r="B1586">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1586">
         <v>0</v>
@@ -87994,10 +87994,10 @@
     </row>
     <row r="1587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1587">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1587">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1587">
         <v>0</v>
@@ -88005,10 +88005,10 @@
     </row>
     <row r="1588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1588">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1588">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1588">
         <v>0</v>
@@ -88016,10 +88016,10 @@
     </row>
     <row r="1589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1589">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1589">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1589">
         <v>0</v>
@@ -88027,10 +88027,10 @@
     </row>
     <row r="1590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1590">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1590">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1590">
         <v>0</v>
@@ -88038,10 +88038,10 @@
     </row>
     <row r="1591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1591">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1591">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1591">
         <v>0</v>
@@ -88049,10 +88049,10 @@
     </row>
     <row r="1592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1592">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1592">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1592">
         <v>0</v>
@@ -88060,10 +88060,10 @@
     </row>
     <row r="1593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1593">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1593">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1593">
         <v>0</v>
@@ -88071,10 +88071,10 @@
     </row>
     <row r="1594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1594">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1594">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1594">
         <v>0</v>
@@ -88082,10 +88082,10 @@
     </row>
     <row r="1595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1595">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B1595">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1595">
         <v>0</v>
@@ -88096,7 +88096,7 @@
         <v>947</v>
       </c>
       <c r="B1596">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1596">
         <v>0</v>
@@ -88104,10 +88104,10 @@
     </row>
     <row r="1597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1597">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1597">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1597">
         <v>0</v>
@@ -88115,10 +88115,10 @@
     </row>
     <row r="1598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1598">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1598">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1598">
         <v>0</v>
@@ -88126,10 +88126,10 @@
     </row>
     <row r="1599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1599">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1599">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1599">
         <v>0</v>
@@ -88137,10 +88137,10 @@
     </row>
     <row r="1600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1600">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1600">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1600">
         <v>0</v>
@@ -88148,10 +88148,10 @@
     </row>
     <row r="1601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1601">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1601">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1601">
         <v>0</v>
@@ -88159,10 +88159,10 @@
     </row>
     <row r="1602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1602">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1602">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1602">
         <v>0</v>
@@ -88170,10 +88170,10 @@
     </row>
     <row r="1603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1603">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1603">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1603">
         <v>0</v>
@@ -88181,10 +88181,10 @@
     </row>
     <row r="1604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1604">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1604">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1604">
         <v>0</v>
@@ -88192,10 +88192,10 @@
     </row>
     <row r="1605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1605">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1605">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1605">
         <v>0</v>
@@ -88206,108 +88206,108 @@
         <v>950</v>
       </c>
       <c r="B1606">
+        <v>1989</v>
+      </c>
+      <c r="C1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1607" s="1">
         <v>1980</v>
       </c>
-      <c r="C1606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1607">
-        <v>950</v>
-      </c>
-      <c r="B1607">
+      <c r="C1607" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1608" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1608" s="1">
         <v>1981</v>
       </c>
-      <c r="C1607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1608">
-        <v>950</v>
-      </c>
-      <c r="B1608">
+      <c r="C1608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1609" s="1">
         <v>1982</v>
       </c>
-      <c r="C1608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1609">
-        <v>950</v>
-      </c>
-      <c r="B1609">
+      <c r="C1609" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1610" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1610" s="1">
         <v>1983</v>
       </c>
-      <c r="C1609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1610">
-        <v>950</v>
-      </c>
-      <c r="B1610">
+      <c r="C1610" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1611" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1611" s="1">
         <v>1984</v>
       </c>
-      <c r="C1610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1611">
-        <v>950</v>
-      </c>
-      <c r="B1611">
+      <c r="C1611" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1612" s="1">
         <v>1985</v>
       </c>
-      <c r="C1611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1612">
-        <v>950</v>
-      </c>
-      <c r="B1612">
+      <c r="C1612" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1613" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1613" s="1">
         <v>1986</v>
       </c>
-      <c r="C1612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1613">
-        <v>950</v>
-      </c>
-      <c r="B1613">
+      <c r="C1613" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1614" s="1">
         <v>1987</v>
       </c>
-      <c r="C1613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1614">
-        <v>950</v>
-      </c>
-      <c r="B1614">
+      <c r="C1614" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1615" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1615" s="1">
         <v>1988</v>
       </c>
-      <c r="C1614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1615">
-        <v>950</v>
-      </c>
-      <c r="B1615">
-        <v>1989</v>
-      </c>
-      <c r="C1615">
+      <c r="C1615" s="1">
         <v>0</v>
       </c>
     </row>
@@ -88316,7 +88316,7 @@
         <v>955</v>
       </c>
       <c r="B1616" s="1">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1616" s="1">
         <v>0</v>
@@ -88324,10 +88324,10 @@
     </row>
     <row r="1617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1617" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1617" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1617" s="1">
         <v>0</v>
@@ -88335,10 +88335,10 @@
     </row>
     <row r="1618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1618" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1618" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1618" s="1">
         <v>0</v>
@@ -88346,10 +88346,10 @@
     </row>
     <row r="1619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1619" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1619" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C1619" s="1">
         <v>0</v>
@@ -88357,10 +88357,10 @@
     </row>
     <row r="1620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1620" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1620" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C1620" s="1">
         <v>0</v>
@@ -88368,10 +88368,10 @@
     </row>
     <row r="1621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1621" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1621" s="1">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1621" s="1">
         <v>0</v>
@@ -88379,10 +88379,10 @@
     </row>
     <row r="1622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1622" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1622" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1622" s="1">
         <v>0</v>
@@ -88390,10 +88390,10 @@
     </row>
     <row r="1623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1623" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1623" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C1623" s="1">
         <v>0</v>
@@ -88401,10 +88401,10 @@
     </row>
     <row r="1624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1624" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1624" s="1">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1624" s="1">
         <v>0</v>
@@ -88412,10 +88412,10 @@
     </row>
     <row r="1625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1625" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1625" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1625" s="1">
         <v>0</v>
@@ -88426,7 +88426,7 @@
         <v>970</v>
       </c>
       <c r="B1626" s="1">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1626" s="1">
         <v>0</v>
@@ -88434,10 +88434,10 @@
     </row>
     <row r="1627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1627" s="1">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="B1627" s="1">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="C1627" s="1">
         <v>0</v>
@@ -88445,10 +88445,10 @@
     </row>
     <row r="1628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1628" s="1">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="B1628" s="1">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="C1628" s="1">
         <v>0</v>
@@ -88456,10 +88456,10 @@
     </row>
     <row r="1629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1629" s="1">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="B1629" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="C1629" s="1">
         <v>0</v>
@@ -88467,10 +88467,10 @@
     </row>
     <row r="1630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1630" s="1">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="B1630" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="C1630" s="1">
         <v>0</v>
@@ -88478,10 +88478,10 @@
     </row>
     <row r="1631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1631" s="1">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="B1631" s="1">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C1631" s="1">
         <v>0</v>
@@ -88489,10 +88489,10 @@
     </row>
     <row r="1632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1632" s="1">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="B1632" s="1">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C1632" s="1">
         <v>0</v>
@@ -88500,10 +88500,10 @@
     </row>
     <row r="1633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1633" s="1">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="B1633" s="1">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C1633" s="1">
         <v>0</v>
@@ -88511,111 +88511,111 @@
     </row>
     <row r="1634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1634" s="1">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="B1634" s="1">
+        <v>1989</v>
+      </c>
+      <c r="C1634" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1635">
+        <v>990</v>
+      </c>
+      <c r="B1635">
+        <v>1980</v>
+      </c>
+      <c r="C1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1636">
+        <v>990</v>
+      </c>
+      <c r="B1636">
+        <v>1981</v>
+      </c>
+      <c r="C1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1637">
+        <v>990</v>
+      </c>
+      <c r="B1637">
+        <v>1982</v>
+      </c>
+      <c r="C1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1638">
+        <v>990</v>
+      </c>
+      <c r="B1638">
+        <v>1983</v>
+      </c>
+      <c r="C1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1639">
+        <v>990</v>
+      </c>
+      <c r="B1639">
+        <v>1984</v>
+      </c>
+      <c r="C1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1640">
+        <v>990</v>
+      </c>
+      <c r="B1640">
+        <v>1985</v>
+      </c>
+      <c r="C1640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1641">
+        <v>990</v>
+      </c>
+      <c r="B1641">
+        <v>1986</v>
+      </c>
+      <c r="C1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1642">
+        <v>990</v>
+      </c>
+      <c r="B1642">
+        <v>1987</v>
+      </c>
+      <c r="C1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1643">
+        <v>990</v>
+      </c>
+      <c r="B1643">
         <v>1988</v>
       </c>
-      <c r="C1634" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1635" s="1">
-        <v>970</v>
-      </c>
-      <c r="B1635" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1635" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1636" s="1">
-        <v>983</v>
-      </c>
-      <c r="B1636" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C1636" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1637" s="1">
-        <v>983</v>
-      </c>
-      <c r="B1637" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C1637" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1638" s="1">
-        <v>983</v>
-      </c>
-      <c r="B1638" s="1">
-        <v>1988</v>
-      </c>
-      <c r="C1638" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1639" s="1">
-        <v>983</v>
-      </c>
-      <c r="B1639" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1639" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1640" s="1">
-        <v>987</v>
-      </c>
-      <c r="B1640" s="1">
-        <v>1986</v>
-      </c>
-      <c r="C1640" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1641" s="1">
-        <v>987</v>
-      </c>
-      <c r="B1641" s="1">
-        <v>1987</v>
-      </c>
-      <c r="C1641" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1642" s="1">
-        <v>987</v>
-      </c>
-      <c r="B1642" s="1">
-        <v>1988</v>
-      </c>
-      <c r="C1642" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1643" s="1">
-        <v>987</v>
-      </c>
-      <c r="B1643" s="1">
-        <v>1989</v>
-      </c>
-      <c r="C1643" s="1">
+      <c r="C1643">
         <v>0</v>
       </c>
     </row>
@@ -88624,113 +88624,14 @@
         <v>990</v>
       </c>
       <c r="B1644">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="C1644">
         <v>0</v>
       </c>
     </row>
-    <row r="1645" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1645">
-        <v>990</v>
-      </c>
-      <c r="B1645">
-        <v>1981</v>
-      </c>
-      <c r="C1645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1646">
-        <v>990</v>
-      </c>
-      <c r="B1646">
-        <v>1982</v>
-      </c>
-      <c r="C1646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1647">
-        <v>990</v>
-      </c>
-      <c r="B1647">
-        <v>1983</v>
-      </c>
-      <c r="C1647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1648">
-        <v>990</v>
-      </c>
-      <c r="B1648">
-        <v>1984</v>
-      </c>
-      <c r="C1648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1649">
-        <v>990</v>
-      </c>
-      <c r="B1649">
-        <v>1985</v>
-      </c>
-      <c r="C1649">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1650">
-        <v>990</v>
-      </c>
-      <c r="B1650">
-        <v>1986</v>
-      </c>
-      <c r="C1650">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1651">
-        <v>990</v>
-      </c>
-      <c r="B1651">
-        <v>1987</v>
-      </c>
-      <c r="C1651">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1652">
-        <v>990</v>
-      </c>
-      <c r="B1652">
-        <v>1988</v>
-      </c>
-      <c r="C1652">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1653">
-        <v>990</v>
-      </c>
-      <c r="B1653">
-        <v>1989</v>
-      </c>
-      <c r="C1653">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1653"/>
+  <autoFilter ref="A1:C1644"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
